--- a/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no3.xlsx
+++ b/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8604D7-9DE1-4A9F-A2C2-516C1F306F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3FFD56-315B-4097-BED8-1C226B968F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="551">
   <si>
     <t>Question</t>
   </si>
@@ -119,9 +119,6 @@
 بر اساس تحلیل بالا، **گزینه B** («فک بالای عقب رفته به دلیل عدم رشد طولی قاعده جمجمه») به طور قوی‌تری با شرح حال "صورت گود افتاده" مرتبط است. عقب رفتن فک بالا می‌تواند به طور مستقیم به ایجاد ظاهر گود افتاده صورت منجر شود.</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر ساختار جمع آوری ادرار در بدن را بهتر توصیف می کند؟</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
 بنابراین، پاسخ نهایی **گزینه [A] : مثانه** است.</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>کدام یک از ساختارهای زیر از اکتومزانشیم مشتق شده است؟</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
 3. **تعریف گلومرول:** گلومرول یک ساختار کوچک در نفرون کلیه است که شامل مویرگ‌های خونی است که در آن‌ها فیلتراسیون خون اتفاق می‌افتد. گلومرول محل تبادل مواد بین خون و ادرار است.
 4. **ارتباط با پرسش:** پرسش در مورد توصیفی از مویرگ‌های خونی موجود در هر نفرون کلیه است. با توجه به تعریف گلومرول، این ساختار دقیقاً این مجموعه از مویرگ‌ها را شامل می‌شود.
 بنابراین، گزینه **B: گلومرول** پاسخ صحیح است.</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
   <si>
     <t>بیماران دچار شکستگی گردن با آسیب به نخاع در سطح مهره ششم گردنی :</t>
@@ -491,9 +482,6 @@
 بر اساس زنجیره افکار بالا، **گزینه [B]: عضله کریکوتیروئید هنوز فعال است اما اینتراریتنوئیدها ضعیف هستند** بهترین توصیف برای نتیجه معاینه لارنگوسکوپی است.</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>کدام یک از عبارات زیر در مورد رشد فک پایین صحیح است؟</t>
   </si>
   <si>
@@ -520,9 +508,6 @@
 * **[C] : مرکز استخوان‌سازی حدود 8 هفته پس از تشکیل جنین در سطح داخلی غضروف مکل ظاهر می‌شود:** این گزینه مربوط به رشد کلی استخوان‌ها است، اما به طور خاص در مورد فک پایین صحبت نمی‌کند.
 * **[D] : ماتریکس عملکردی که روی زاویه فک پایین عمل می کند عضله تریگوئید جانبی است:** این گزینه غلط است. ماتریکس عملکردی که بر زاویه فک پایین تاثیر می‌گذارد، عمدتاً شامل اعصاب و عروق خونی است که فک را تغذیه و تحریک می‌کنند. عضله تریگوئید جانبی عمدتاً در جهت بالا و عقب کشیدن فک عمل می‌کند.
 **بنابراین، پاسخ صحیح گزینه [A]**  است.</t>
-  </si>
-  <si>
-    <t>A5</t>
   </si>
   <si>
     <t>کدام یک از عبارات زیر در مورد رفلکس نور مردمک درست است؟</t>
@@ -614,9 +599,6 @@
 بنابراین، پاسخ نهایی من [D] است.</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>خون اکسیژن دار توسط کدام یک از ساختارهای زیر به قلب منتقل می شود؟</t>
   </si>
   <si>
@@ -678,9 +660,6 @@
 بنابراین، پاسخ صحیح گزینه **C: نای** است. نای نقش حیاتی در انتقال هوا از طریق مسیر تنفسی به ریه‌ها دارد.</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>گره سینوسی دهلیزی در کجا قرار دارد؟</t>
   </si>
   <si>
@@ -710,9 +689,6 @@
    - [D] در دیواره بالایی بطن چپ: این گزینه کاملاً اشتباه است زیرا گره سینوسی دهلیزی در دهلیز راست قرار دارد.
 **پاسخ:**
 با توجه به زنجیره افکار بالا، پاسخ صحیح **گزینه C** است: در دیواره بالایی دهلیز راست.</t>
-  </si>
-  <si>
-    <t>A8</t>
   </si>
   <si>
     <t>در رابطه با دنده، عصب بین دنده ای مربوطه در کجا قرار دارد؟</t>
@@ -826,9 +802,6 @@
 مفصل غضروفی اسفنو-اکسیپیتال به دلیل نقشش در حرکت سر و شکل‌دهی صورت،  تأثیر مستقیم بر موقعیت اسکلت صورت دارد.</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>کدام یک از مواد زیر به مقدار بیشتری در هوای بازدم یافت می شود؟</t>
   </si>
   <si>
@@ -860,9 +833,6 @@
 **پاسخ:** [C] نیتروژن</t>
   </si>
   <si>
-    <t>Ax</t>
-  </si>
-  <si>
     <t>مشخصه کدام یک از شرایط زیر وجود سنگ کلیه (کلیوی) است؟</t>
   </si>
   <si>
@@ -887,9 +857,6 @@
 3. **نفرولیتیازیس (گزینه C)**: نفرولیتیازیس به تشکیل سنگ در کلیه اشاره دارد. این بیماری با تولید مقدار زیادی سنگ در کلیه مشخص می‌شود و یکی از مشخصه‌های اصلی آن وجود سنگ کلیه است.
 4. **کلیه پلی کیستیک (گزینه D)**: کلیه پلی کیستیک یک بیماری ارثی است که با تشکیل کیست‌های متعدد در کلیه مشخص می‌شود. اگرچه ممکن است با عوارض مختلفی همراه باشد، اما مشخصه اصلی آن تشکیل کیست‌ها نه سنگ.
 بنابراین، با توجه به توضیحات فوق، گزینه **C: نفرولیتیازیس** مشخصه وجود سنگ کلیه است.</t>
-  </si>
-  <si>
-    <t>B1</t>
   </si>
   <si>
     <t>ممکن است نبض در صورت بیمار در جایی که .... احساس شود</t>
@@ -924,9 +891,6 @@
 **پاسخ:** گزینه [A] : شریان صورت از فک پایین عبور می‌کند.</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>به یک بیمار ضربه شدیدی به سمت چپ بالای شکم وارد می شود و نیاز به جراحی دارد. کدام یک از اندام های زیر بیشتر درگیر است؟</t>
   </si>
   <si>
@@ -953,9 +917,6 @@
 - [C] طحال: طحال در سمت چپ بالای شکم قرار دارد و در مسیر مسیر ضربه قرار می‌گیرد. طحال اندامی حاوی خون است و ضربه شدید می‌تواند منجر به خونریزی قابل توجهی شود که نیاز به مداخله جراحی فوری دارد.
 - [D] مثانه: مثانه در قسمت پایین‌تر شکم، در پشت رحم (در زنان) یا پروستات (در مردان) قرار دارد و دور از محل ضربه است.
 بنابراین، با توجه به منطق موقعیت جغرافیایی آسیب و اهمیت آن، **اندامی که بیشتر درگیر است [C] طحال** است.</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>کدام عبارت در مورد گره دهلیزی بطنی درست است؟</t>
@@ -989,9 +950,6 @@
 بنابراین، گزینه **(B)**  صحیح است: **"از الیاف پورکنژ تشکیل شده است و تنها اتصال الکتریکی بین دهلیزها و بطن ها است."**</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>کدام یک از عبارت های زیر حرکت خم شدن ساعد به سمت بدن را توصیف می کند؟</t>
   </si>
   <si>
@@ -1016,9 +974,6 @@
 - **فلکشن (Flexion)**: خم شدن یک مفصل یا اندام است، که در این مورد خاص، خم شدن ساعد به سمت بدن را توصیف می‌کند.
 - **پرونیشن (Pronation)**: چرخش یا پیچیدن صورت یا اندام به سمت زیر است، و ارتباطی با خم شدن ساعد به سمت بدن ندارد.
 بنابراین، با توجه به تعریف‌ها، گزینه درست برای توصیف حرکت خم شدن ساعد به سمت بدن، **[C] فلکشن** است.</t>
-  </si>
-  <si>
-    <t>B5</t>
   </si>
   <si>
     <t>در مرحله حلقی بلع از ورود غذا به حنجره توسط ... جلوگیری می شود.</t>
@@ -1082,9 +1037,6 @@
 بر اساس این زنجیره افکار، پاسخ صحیح گزینه [B] دوازدهه است. صفرا در دوازدهه وارد دستگاه گوارش می‌شود.</t>
   </si>
   <si>
-    <t>B6</t>
-  </si>
-  <si>
     <t>در کدام یک از وضعیت های زیر بیمار به صورت رو به پایین دراز می کشد؟</t>
   </si>
   <si>
@@ -1141,9 +1093,6 @@
 بنابراین، پس از تجزیه و تحلیل، پاسخ مناسب **گزینه C (زائده‌های کام، پیشانی و بینی ثانویه)** است. این عوامل به طور جمعی می‌توانند منجر به شکست در همجوشی و در نتیجه شکاف کامل دو طرفه کام شوند.</t>
   </si>
   <si>
-    <t>B7</t>
-  </si>
-  <si>
     <t>شیپور استاش (لوله شنوایی):</t>
   </si>
   <si>
@@ -1198,9 +1147,6 @@
 با توجه به اینکه طحال به طور خاص به عنوان یک مخزن گلبول‌های قرمز و یک فیلتر خونی عمل می‌کند، پاسخ صحیح **گزینه D : طحال** است.</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>کدام یک از حفره های زیر توسط دیافراگم جدا می شود؟</t>
   </si>
   <si>
@@ -1226,9 +1172,6 @@
 * **[C] سینه ای و شکمی:** این گزینه **درست است!** دیافراگم قفسه سینه را از شکم جدا می‌کند.
 * **[D] پریکارد و جنب:**  پریکارد غشای بیرونی قلب است و جنب ناحیه‌ای در جلوی قلب است. دیافراگم  این دو را به طور مستقیم جدا نمی‌کند.
 پس، پاسخ صحیح **گزینه C: سینه ای و شکمی** است.</t>
-  </si>
-  <si>
-    <t>B9</t>
   </si>
   <si>
     <t>دیواره برونشیول ها حاوی چیست؟</t>
@@ -1289,9 +1232,6 @@
 بر اساس توضیحات فوق، تنها اندامی که تمام ویژگی‌های ذکر شده در سؤال را برآورده می‌کند، **کبد (C)** است. از این رو، پاسخ صحیح گزینه **C** می‌باشد.</t>
   </si>
   <si>
-    <t>Bx</t>
-  </si>
-  <si>
     <t>مشخصه کدام یک از شرایط زیر نارسایی اسفنکتر مری است؟</t>
   </si>
   <si>
@@ -1319,9 +1259,6 @@
 - [C] بیماری بازگشت اسید به مری: این وضعیت دقیقاً ناشی از نارسایی عملکرد اسفنکتر مری است که اجازه می‌دهد اسید معده به مری بازگردد.
 - [D] تنگی پیلور: تنگی در پیلور (درز بین معده و مری) می‌تواند بر جریان غذا تأثیر بگذارد، اما معمولاً با نارسایی اسفنکتر مری مرتبط نیست.
 بنابراین، گزینه **(C) بیماری بازگشت اسید به مری** مشخصه اصلی نارسایی اسفنکتر مری است.</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>ماهیچه های کام نرم توسط شاخه هایی از... عصب دهی می شوند</t>
@@ -1538,9 +1475,6 @@
 گزینه صحیح **[C] اریتروسیت** است.</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>درز تاجی .... را به هم متصل می کند</t>
   </si>
   <si>
@@ -1595,9 +1529,6 @@
    - در نهایت **غضروف تیروئید** را لمس می‌کنیم.
 با توجه به این تحلیل، پاسخ صحیح این است که باید بتوانیم به ترتیب استخوان هیوئید، غضروف کریکوئید، غضروف تیروئید را لمس کنیم.
 **پاسخ:** [C] : استخوان هیوئید، غضروف تیروئید، غضروف کریکوئید.</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>کدام یک از ساختارهای استخوانی زیر در بیمار زنده قابل لمس است؟</t>
@@ -1742,9 +1673,6 @@
 **[B] : از روی عضله ماسِتر عبور می‌کند و در مقابل دندان آسیای دوم بالایی وارد دهان می‌شود**</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>اگر پا به سمت خارج چرخانده شود به کدام سمت حرکت می کند؟</t>
   </si>
   <si>
@@ -1799,9 +1727,6 @@
    - [D] : قسمت تحتانی عضله اوبیکولاریس چشمی را عصب دهی می‌کند. (این گزینه نیز اشتباه است زیرا عصب Infraorbital عضله اوبیکولاریس چشمی را عصب‌دهی نمی‌کند.)
 3. **نتیجه‌گیری**: با توجه به تعریف و نقش عصب Infraorbital، تنها گزینه صحیح [A] است که بیان می‌کند شاخه انتهایی بخش فک بالا عصب سه قلو است.
 **پاسخ نهایی: [A]**</t>
-  </si>
-  <si>
-    <t>C5</t>
   </si>
   <si>
     <t>کدام یک از موارد زیر فرآیندی را که طی آن ماهیچه های معده منقبض می شوند تا غذا را از طریق دستگاه گوارش به حرکت درآورند، بهتر توصیف می کند؟</t>
@@ -1835,9 +1760,6 @@
 بنابراین، گزینه **[C] پریستالسیس** به طور کامل فرآیندی را که طی آن ماهیچه‌های معده منقبض می‌شوند تا غذا را از طریق دستگاه گوارش به حرکت درآورند، توصیف می‌کند.</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر نقطه ای است که در آن یک تکانه از یک نورون به نورون دیگر منتقل می شود؟</t>
   </si>
   <si>
@@ -1863,9 +1785,6 @@
 4. **مرکز عصبی:** اصطلاح کلی برای منطقه‌ای از سیستم عصبی است که به عنوان مرکز کنترل و پردازش اطلاعات عمل می‌کند، اما به خودی خود محل انتقال تکانه از یک نورون به نورون دیگر نیست.
 5. **سیناپس:** محل ارتباط بین دو نورون است. در سیناپس، یک تکانه از یک نورون (نورون بعدی) به نورون بعدی منتقل می‌شود. این انتقال از طریق آزادسازی نوروترانسمیتورها (مواد شیمیایی پیام‌رسان) در شکاف سیناپسی انجام می‌شود.
 بنابراین، گزینه صحیح **(D) سیناپس** است، زیرا سیناپس نقطه‌ای است که در آن تکانه از یک نورون به نورون دیگر منتقل می‌شود.</t>
-  </si>
-  <si>
-    <t>C7</t>
   </si>
   <si>
     <t>کدام یک از عضلات زیر باعث بالا رفتن فک پایین می شود؟</t>
@@ -1897,9 +1816,6 @@
 4. **انتخاب پاسخ**: بنابراین، پاسخ صحیح گزینه [D] : تریگوئید داخلی است.</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر یکی از اعضای کمکی دستگاه گوارش است که مسئول ترشح انسولین است؟</t>
   </si>
   <si>
@@ -1927,9 +1843,6 @@
    - **پانکراس**: مسئول ترشح انسولین (هورمونی که قند خون را تنظیم می‌کند) و همچنین آنزیم‌های گوارشی.
 3. **شناسایی پاسخ درست**: با توجه به توضیحات بالا، تنها عضوی که مسئول ترشح انسولین است، پانکراس است.
 بنابراین، پاسخ درست گزینه **D** : پانکراس است.</t>
-  </si>
-  <si>
-    <t>C9</t>
   </si>
   <si>
     <t>یک تومور بدخیم به عصب گلوفارنکس بیمار آسیب رسانده. او چه چیزی را تجربه خواهد کرد؟</t>
@@ -2021,9 +1934,6 @@
 با توجه به زنجیره افکار فوق، پاسخ صحیح **[C] شریان‌های ریوی** است. خون از بطن راست قلب به شریان‌های ریوی جریان می‌یابد تا به ریه‌ها برود و اکسیژن دریافت کند.</t>
   </si>
   <si>
-    <t>Cx</t>
-  </si>
-  <si>
     <t>یک بیمار به گردنش ضربه چاقو خورده است. به آسیب عصب جانبی در مثلث خلفی مشکوک هستید. شما با چه درخواستی از بیمار عملکرد عصبی او را آزمایش می کنید؟</t>
   </si>
   <si>
@@ -2049,9 +1959,6 @@
 2. عصب جانبی کنترل عضلات شانه و بازوی تحتانی را بر عهده دارد.
 3. آزمایش عملکرد این عضلات با بلند کردن شانه‌ها در برابر مقاومت، بهترین روش برای تشخیص ضعف عضلانی ممکن است.
 بنابراین، پاسخ انتخاب شده: [C]</t>
-  </si>
-  <si>
-    <t>D1</t>
   </si>
   <si>
     <t>کدام یک از عضلات زیر از اولین قوس شاخه ای مشتق شده اند؟</t>
@@ -2107,9 +2014,6 @@
 - [C] در وسط کشاله ران: نبض کاروتید در هیچ وجه در کشاله ران یافت نمی‌شود. کشاله ران محل شریان فمورال (معروف به رگ خونی در ران) است، نه شریان کاروتید.
 - [D] در قسمت قدامی گردن: این گزینه صحیح است. نبض کاروتید در قسمت قدامی گردن، به طور دقیق‌تر در زیر غضروف گلو، در مسیر شریان کاروتید، قابل احساس است.
 بنابراین، گزینه [D] به بهترین نحو مکانی را که می‌توان نبض کاروتید را پیدا کرد، توصیف می‌کند.</t>
-  </si>
-  <si>
-    <t>D2</t>
   </si>
   <si>
     <t>در ساقه مغز، مسیرهای مربوط به :</t>
@@ -2172,9 +2076,6 @@
 با توجه به تحلیل بالا، **گزینه [D] حلقه‌های نای** پاسخ صحیح است زیرا مجرای تنفسی (هوای که وارد بدن و در نهایت ریه‌ها می‌شود) از طریق تنگه غده تیروئید، که در مسیر حلقه‌های نای قرار دارد، عبور می‌کند.</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>شما متوجه ضایعه ای در مخاط آلوئول لبی دندان پیشین جانبی پایین سمت راست یکی از بیماران خود می شوید و تصمیم می گیرید که بیوپسی را برای ارسال گزارش پاتولوژی دهان انجام دهید. کدام عصب نیاز به بی حسی موضعی دارد تا بتوان نمونه برداری را بدون درد انجام داد؟</t>
   </si>
   <si>
@@ -2201,9 +2102,6 @@
 - **گزینه [C] عصب گونه‌ای:** این عصب مسئول حس گونه و بخش‌هایی از دهان در سمت صورت است. محل آن از منطقه مورد نظر برای بیوپسی دورتر است.
 - **گزینه [D] عصب زبانی:** عصب زبانی حس زبان را تأمین می‌کند و برای بیوپسی دندان و مخاط آلوئول لبی مناسب نیست.
 بنابراین، با توجه به مکان ضایعه و نزدیک بودن آن به عصب چانه‌ای، **گزینه [B] عصب چانه‌ای** به عنوان عصب مورد نیاز برای بی‌حسی موضعی در هنگام انجام بیوپسی انتخاب می‌شود.</t>
-  </si>
-  <si>
-    <t>D4</t>
   </si>
   <si>
     <t>غلظت اصلی گیرنده‌های حس عمقی که اطلاعاتی در مورد موقعیت TMJ ارائه می‌دهند در درون ... قرار دارند</t>
@@ -2263,9 +2161,6 @@
 بنابراین، با توجه به شواهد و توضیحات ارائه شده، **استیل کولین (گزینه [A])** ماده‌ای است که به انتقال تکانه‌های عصبی به ماهیچه‌ها کمک می‌کند.</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
     <t>در نخاع، اجسام سلولی نورون حرکتی دردرون ... قرار دارند</t>
   </si>
   <si>
@@ -2376,9 +2271,6 @@
 بنابراین، با توجه به توضیحات بالا، گزینه صحیح **[C] آتروفی** است. ماهیچه‌های مچ دست بدون بازسازی عصب حرکتی محیطی، به دلیل عدم تحریک و استفاده، دچار کاهش حجم و ضعف (آتروفی) می‌شوند.</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
     <t>یک بیمار دچار CVA در ناحیه کپسول داخلی سمت چپ می شود که نورون های حرکتی را به پای راست می رساند. پای بیمار نمایان ...خواهد شد</t>
   </si>
   <si>
@@ -2432,9 +2324,6 @@
 3. **عدم وجود عامل مستعدکننده**: در متن پرسش اشاره شده که هیچ عامل مستعدکننده‌ای برای حرکت قطعه در یک جهت خاص وجود ندارد، یعنی بدون هیچ دخالت خارجی، قطعه آزادانه حرکت خواهد کرد.
 با توجه به این نکات، احتمال بیشتری دارد که قطعه شکسته تاج دندان به دلیل پهن‌تر و عمودی‌تر بودن نایژه اصلی راست، به ریه راست وارد شود.
 بنابراین، پاسخ صحیح گزینه [A] است: **ریه راست زیرا نایژه اصلی راست پهن تر و عمودی تر از سمت چپ است.**</t>
-  </si>
-  <si>
-    <t>D7</t>
   </si>
   <si>
     <t>کلسیم، پتاسیم و سدیم در کدام یک از موارد زیر طبقه بندی می شوند؟</t>
@@ -2469,9 +2358,6 @@
 بنابراین، زنجیره افکار نشان می‌دهد که با توجه به ویژگی‌های شیمیایی و بیولوژیکی این عناصر، گزینه صحیح **گزینه C** است.</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
     <t>نورآدرنالین ناقل عصبی بین کدام یک از دو ساختار زیر است؟</t>
   </si>
   <si>
@@ -2532,9 +2418,6 @@
 **پاسخ:** با توجه به توضیحات بالا، گزینه صحیح **[B] بارتولین** است. غدد بارتولین به طور خاص در هر طرف دهانه واژن قرار دارند و وظیفه اصلی آنها تولید مخاط برای مرطوب نگه داشتن واژن است.</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>در صورت نیاز به باز شدن اضطراری در راه هوایی، غشای کریکوتیروئید باید.... فورا سوراخ شود</t>
   </si>
   <si>
@@ -2620,9 +2503,6 @@
 3. **زبان کوچک (D)**: زبان کوچک یا زبان زیرین، عضله‌ای کوچک است که در کف دهان قرار دارد. در حالی که در حرکت دادن غذا به سمت مری کمک می‌کند، عملکرد اصلی آن در بستن راه هوایی تحتانی نیست.
 4. **اپی گلوت (B)**: اپی گلوت یک بند عضلانی است که بخش مهمی از گلو را تشکیل می‌دهد. در هنگام بلع، اپی گلوت به سمت بالا بالا می‌رود و شکافی را که بین لارنکس و مری وجود دارد، می‌بندد. این عمل، راه هوایی تحتانی را به طور کامل مسدود می‌کند و از ورود غذا به راه هوایی جلوگیری می‌نماید.
 بنابراین، پاسخ صحیح گزینه **[B] اپی گلوت** است.</t>
-  </si>
-  <si>
-    <t>Dx</t>
   </si>
   <si>
     <t>کدام دیواره اربیتال بیشتر احتمال دارد در شکستگی 'بلو-اوت' (شکستگی انفجاری) دچار فروپاشی می شود؟</t>
@@ -2685,9 +2565,6 @@
    - **کام سخت (استخوان کام)**: کام سخت نیز بخشی از ساختار است که سینوس فک بالا را احاطه می‌کند.
 4. **انتخاب گزینه مناسب**: گزینه‌ای که تمام ساختارهای مرتبط با دیواره‌های سینوس فک بالا را پوشش می‌دهد، گزینه **C** است: "کف اربیت، دندان‌های خلفی فوقانی و حفره زیر گیجگاهی."
 بنابراین، پاسخ صحیح گزینه **C** است.</t>
-  </si>
-  <si>
-    <t>E1</t>
   </si>
   <si>
     <t>کدام یک از عبارات زیر در مورد رشد فک بالا پس از زایمان صحیح است؟</t>
@@ -2818,9 +2695,6 @@
 با توجه به توضیحات بالا، تنها گزینه‌ای که یک پروتئین ساختاری فیبری در درم پوست است، **کلاژن (گزینه A)** است.</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>بالا آمدن قفسه های کام به دلیل اثر....است</t>
   </si>
   <si>
@@ -2853,9 +2727,6 @@
 **پاسخ نهایی: [D]**</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>احتمال تجمع پلاک های دندانی در دهان بیمارانی که بهداشت دهان و دندان ضعیفی دارند، روی کدام سطوح دندان است؟</t>
   </si>
   <si>
@@ -2905,9 +2776,6 @@
 3. **مایع به سرعت در قفسه سینه زیر تارهای صوتی تخلیه می‌شود (گزینه [C])**: این گزینه ارتباطی با محدودیت ادم حنجره ندارد. در واقع، تجمع مایع زیر تارهای صوتی می‌تواند به گسترش تورم کمک کند.
 4. **مخاط بالای تارهای صوتی عروقی‌تر از مخاط زیر تارهای صوتی است (گزینه [D])**: تفاوت در عروقی بودن مخاط ممکن است در میزان تورم نقش داشته باشد، اما دلیل اصلی محدودیت ادم حنجره به چسبندگی شدید مخاط پوشاننده تارهای صوتی برمی‌گردد.
 بنابراین، با توجه به زنجیره افکار بالا، گزینه صحیح [B] است: **مخاط پوشاننده تارهای صوتی به شدت به بافت‌های زیرین چسبیده است**.</t>
-  </si>
-  <si>
-    <t>E4</t>
   </si>
   <si>
     <t>عروق کرونر</t>
@@ -3196,9 +3064,6 @@
 2. **شناسایی مجرای شریانی**: مجرای شریانی خون اکسیژن‌دار از قلب به ریه‌ها می‌رود.
 3. **محل عبور مجرای شریانی**: در جنین، مجرای شریانی خون از **شریان ریوی به آئورت** عبور می‌کند.
 بنابراین، پاسخ صحیح گزینه [C] است: **شریان ریوی به آئورت**.</t>
-  </si>
-  <si>
-    <t>E5</t>
   </si>
   <si>
     <t>کدام یک از استخوان های زیر در اثر استخوان سازی داخل غضروفی رشد می کند؟</t>
@@ -3300,9 +3165,6 @@
 4. **نتیجه‌گیری:**  با توجه به ساختار مفاصل ستون فقرات و دانستن محل قرارگیری سر دنده ششم، گزینه [C]  بهترین پاسخ است: نیم سطح مفصلی تحتانی T5 و نیم سطح مفصلی فوقانی T6.</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر در زیر دیافراگم در ربع فوقانی سمت چپ حفره شکمی قرار دارد؟</t>
   </si>
   <si>
@@ -3332,9 +3194,6 @@
 3. **بررسی گزینه‌ها:** گزینه D (پانکراس) به دلیل موقعیت ذکر شده در گام ۲، حذف می‌شود.
 4. **انتخاب پاسخ صحیح:** با بررسی موقعیت سایر گزینه‌ها، می‌بینیم که آپاندیس (گزینه A) زیر دیافراگم و در ربع تحتانی سمت چپ حفره شکمی قرار می‌گیرد، در حالی که دوازدهه (گزینه B) و طحال (گزینه C) تحت دیافراگم و در ربع فوقانی سمت چپ واقع شده‌اند.
 بنابراین، پاسخ صحیح **گزینه C: طحال** است.</t>
-  </si>
-  <si>
-    <t>E7</t>
   </si>
   <si>
     <t>پایانه های عصبی حس عمقی در مفاصل سینوویال در داخل چه چیزی قرار دارند؟</t>
@@ -3396,9 +3255,6 @@
     - [C] فعالیت ذهنی: این گزینه نیز ارتباط فیزیکی مستقیمی با قفسه سینه ندارد.
     - [D] تنفس: قفسه سینه به عنوان یک واحد ساختاری، پایه و اساس عملکرد تنفس را تشکیل می‌دهد.
 بنابراین، پاسخ صحیح **گزینه [D]: تنفس** است.</t>
-  </si>
-  <si>
-    <t>E8</t>
   </si>
   <si>
     <t>بیمار پس از ضربه به سر بستری می شود و به سرعت در کما فرو می رود. اسکن ام آر آی خونریزی خارج از سخت شامه را نشان می دهد، زیرا خون خارج شده بین ... تشخیص داده می شود.</t>
@@ -3489,9 +3345,6 @@
 بنابراین، **گزینه [C]** بهترین گزینه است زیرا ویژگی‌های رایج و مهم سوراخ‌های استخوان اسفنوئید را توصیف می‌کند.</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر اختلالی است که با دوره های غیرقابل کنترل به خواب رفتن در طول روز مشخص می شود؟</t>
   </si>
   <si>
@@ -3519,9 +3372,6 @@
 بنابراین، با توجه به توصیف ارائه شده، **گزینه صحیح [D] : نارکولپسی** است.</t>
   </si>
   <si>
-    <t>Ex</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر اجازه تبادل گاز در ریه ها را می دهد؟</t>
   </si>
   <si>
@@ -3546,9 +3396,6 @@
 - **[C] برونشیل‌ها:** برونشیل‌ها شاخه‌هایی از برونش‌ها هستند که هوا را به آلوئول‌ها توزیع می‌کنند، مشابه برونش‌ها، آن‌ها به طور مستقیم در تبادل گاز دخیل نیستند.
 - **[D] مویرگ‌ها:** مویرگ‌ها رگ‌های خونی ریز هستند که در آلوئول‌ها قرار دارند. آن‌ها اکسیژن از آلوئول‌ها جذب می‌کنند و دی‌اکسید کربن را به آلوئول‌ها می‌رسانند، که در نهایت باعث تبادل گاز در ریه‌ها می‌شود.
 بنابراین، گزینه صحیح **[A] آلوئول** است، زیرا آلوئول‌ها با دیواره‌های نازک و سطح بزرگ خود، محیطی ایده‌آل برای تبادل گاز در ریه‌ها فراهم می‌کنند.</t>
-  </si>
-  <si>
-    <t>F1</t>
   </si>
   <si>
     <t>یک بیمار شکستگی دارد که در آن رادیوس خم شده اما جابجا نشده است و پوست سالم است. این نوع شکستگی به کدام یک از موارد زیر معروف است؟</t>
@@ -3602,9 +3449,6 @@
 - [C] تخمدان: تخمدان‌ها اندام‌هایی هستند که تخمک‌ها را تولید می‌کنند. اگرچه تخمک‌ها در اینجا تولید می‌شوند، اما لقاح در لوله فالوپ رخ می‌دهد، نه در خود تخمدان.
 - [D] رحم: رحم اندامی است که در آن جنین رشد می‌کند. اگرچه رحم در ادامه فرایند تولیدمثل نقش دارد، اما محل اصلی لقاح اسپرم و تخمک نیست.
 بنابراین، بر اساس درک مناسب از زیست‌شناسی تولیدمثل، پاسخ صحیح **گزینه [B] لوله فالوپ** است. در لوله فالوپ است که لقاح تخمک توسط اسپرم اتفاق می‌افتد.</t>
-  </si>
-  <si>
-    <t>F2</t>
   </si>
   <si>
     <t>اکتودرم ایجاد می کند</t>
@@ -3665,9 +3509,6 @@
 3. **تحلیل پرسش**: پرسش می‌پرسد که کدام ساختار در گردن مثانه قرار دارد و مجرای ادرار را احاطه کرده است.
 4. **انتخاب پاسخ**: با توجه به توضیحات بالا، تنها گزینه‌ای که در گردن مثانه قرار دارد و مجرای ادرار را احاطه کرده، **پروستات** (گزینه [B]) است. پروستات به عنوان یک غده، فضای اطراف مجرای ادرار را اشغال می‌کند و وظیفه مهمی در تنظیم جریان ادرار و تولید مایع منی دارد.
 بنابراین، پاسخ صحیح **گزینه [B] : پروستات** است.</t>
-  </si>
-  <si>
-    <t>F3</t>
   </si>
   <si>
     <t>کدام یک از گزینه های زیر عبارت زیر را کامل می کند؟ "دریچه دهلیزی راست..."</t>
@@ -3758,9 +3599,6 @@
 با توجه به توضیحات فوق، تنها گزینه صحیح **C** است: ایلئوم بخشی از روده کوچک است.</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>در طول بلوک عصب آلوئولار تحتانی، سوزن به طور ایده آل عبور می کند</t>
   </si>
   <si>
@@ -3786,9 +3624,6 @@
 - [C] از طریق تریگوئید داخلی: این گزینه ممکن است درست باشد، اما بدون اطلاعات بیشتر دربارهٔ قطر یا شکل سوزن، تضمینی برای "به طور ایده‌آل" عبور آن وجود ندارد.
 - [D] پایین‌تر از تریگوئید داخلی: این گزینه احتمالاً به یک ساختار عصبیک پایین‌تر اشاره دارد که ممکن است در آن سطح، سوزن بتواند به راحتی عبور کند.
 با توجه به منطق و درک ساختار بلوک عصب آلوئولار تحتانی، گزینه [B] به نظر مناسب‌ترین پاسخ است: **تریگوئید قدامی و جانبی تا داخلی**. این مسیر به سوزن اجازه می‌دهد تا با گذر از زاویه‌های ملایم‌تر، به طور ایده‌آل و کارآمدتر عبور کند.</t>
-  </si>
-  <si>
-    <t>F5</t>
   </si>
   <si>
     <t>بیماران مبتلا به کدام یک از بیماری های زیر با تزریق ویتامین B-12 درمان می شوند؟</t>
@@ -3820,9 +3655,6 @@
 با توجه به اطلاعات بالا، پاسخ صحیح گزینه **C: کم خونی خطرناک** است، زیرا کمبود ویتامین B-12 یک عامل احتمالی در این نوع کم خونی است و تزریق ویتامین B-12 می‌تواند به بهبود آن کمک کند.</t>
   </si>
   <si>
-    <t>F6</t>
-  </si>
-  <si>
     <t>کدام یک از استخوان های زیر دارای فرآیندی است که به استخوان زیگوماتیک متصل می شود و قوس زیگوماتیک را تشکیل می دهد؟</t>
   </si>
   <si>
@@ -3876,9 +3708,6 @@
 3. **منبع آکسون‌ها**: آکسون‌های پیش‌گانگلیونی پاراسمپاتیک از مغز (به طور خاص، از مغز میان‌مغز یا Brainstem) و نخاع خارج می‌شوند. آنها از طریق اعصاب خاجی (Spinothalamic Tracts) و دیگر مسیرهای نخاعی به اندام‌ها و بافت‌های هدف می‌روند.
 4. **انتخاب گزینه صحیح**: از بین گزینه‌های ارائه‌شده، اعصاب نخاعی خاجی (D) نزدیک‌ترین گزینه به مسیر خروجی آکسون‌های پیش‌گانگلیونی پاراسمپاتیک هستند.
 بنابراین، پاسخ صحیح گزینه **D** است: اعصاب نخاعی خاجی.</t>
-  </si>
-  <si>
-    <t>F7</t>
   </si>
   <si>
     <t>بیمار با آسیب به زنجیره سمپاتیک گردنی خود چه علائم و نشانه هایی را نشان می دهد؟</t>
@@ -3942,9 +3771,6 @@
 ## پاسخ انتخاب‌شده: [C] بویایی</t>
   </si>
   <si>
-    <t>F8</t>
-  </si>
-  <si>
     <t>مراکز حیاتی در ساقه مغز کجا قرار دارند؟</t>
   </si>
   <si>
@@ -3969,9 +3795,6 @@
 - [C] بصل النخاع (Medulla Oblongata): بصل النخاع یکی از بخش‌های کلیدی ساقه مغز است که نقش اساسی در کنترل تنفس، ضربان قلب، قند خون، و عملکردهای گوارشی دارد. این بخش حاوی مراکز کنترل حیاتی است.
 - [D] رفلکس گگ (بازتاب عق زنی): این گزینه به نظر می‌رسد خارج از موضوع پرسش است، زیرا رفلکس‌های بازتابی پاسخ‌های خودکار به محرک‌های خاص هستند و در مراکز حیاتی ساقه مغز قرار ندارند.
 با توجه به توضیحات فوق، گزینه [C] بصل النخاع بهترین پاسخ است زیرا به طور مستقیم و مشخص مراکز حیاتی در ساقه مغز را در خود جای داده است.</t>
-  </si>
-  <si>
-    <t>F9</t>
   </si>
   <si>
     <t>بزاق حاوی آنزیمی است که بر روی کدام یک از مواد مغذی زیر اثر می گذارد؟</t>
@@ -4004,9 +3827,6 @@
 ## پاسخ نهایی: [A]</t>
   </si>
   <si>
-    <t>Fx</t>
-  </si>
-  <si>
     <t>در حین بلعیدن چه اتفاقی می افتد؟</t>
   </si>
   <si>
@@ -4089,9 +3909,6 @@
 [D] **هیپوفیز:** هیپوفیز، که به عنوان "غده هدایت‌کننده" نیز شناخته می‌شود، در پایه مغز قرار دارد. این غده هورمون‌های مختلفی را ترشح می‌کند که بر فعالیت سایر غدد درون‌ریز نظارت دارد و به تنظیم بسیاری از جنبه‌های فیزیولوژی بدن کمک می‌کند.
 **نتیجه:**
 با توجه به توضیحات فوق، پاسخ صحیح **(D) هیپوفیز** است، زیرا هیپوفیز به عنوان غده اصلی و تنظیم‌کننده در سیستم غدد درون‌ریز عمل می‌کند. سایر گزینه‌ها، هرچند نقش مهمی در سیستم‌های فیزیولوژیکی مختلف دارند، اما غده اصلی سیستم غدد درون‌ریز نیستند.</t>
-  </si>
-  <si>
-    <t>G1</t>
   </si>
   <si>
     <t>از دست دادن حس جسمانی در دو سوم قدامی زبان نشان دهنده آسیب به زبان است.</t>
@@ -4540,15 +4357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4588,7 +4405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4607,2848 +4424,2665 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>94</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B23" t="s">
         <v>95</v>
       </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="E23" t="s">
         <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" t="s">
-        <v>105</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="B29" t="s">
         <v>119</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
-      <c r="G29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="409.6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="409.6">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="409.6">
+    <row r="55" spans="1:6" ht="409.6">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
-      <c r="G56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
       </c>
-      <c r="G58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E59" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="E62" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B65" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="E65" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B66" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B67" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
       </c>
-      <c r="G71" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="E72" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="E73" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
       </c>
-      <c r="G73" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="E74" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="E76" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B77" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="E79" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
       </c>
-      <c r="G79" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="E80" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="B81" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="E81" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E82" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
-      <c r="G82" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="E83" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="E84" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
       </c>
-      <c r="G85" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E86" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="E87" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="B88" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="E88" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="B89" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="E89" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="B90" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="E90" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="E91" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
-      <c r="G91" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="B92" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="E92" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="B93" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
-      <c r="G94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="E95" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="B96" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="E96" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="B97" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="E97" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="B98" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="B99" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="E99" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="B100" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="E100" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="B101" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="E101" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="B102" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="E102" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="B103" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="E103" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="B104" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="E104" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="B105" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E105" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="B106" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="E106" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="B107" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E107" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="B108" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="E108" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="B109" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="E109" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="B110" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="E110" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="B111" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="E111" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="B112" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="E112" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="F112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="B113" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="E113" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="B114" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="E114" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="B115" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="E115" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="F115" t="s">
         <v>8</v>
       </c>
-      <c r="G115" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="B116" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="E116" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="B117" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="E117" t="s">
-        <v>525</v>
+        <v>474</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
-      <c r="G117" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="B118" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="E118" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="B119" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="E119" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
       </c>
-      <c r="G119" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="B120" t="s">
-        <v>537</v>
+        <v>484</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="E120" t="s">
-        <v>539</v>
+        <v>486</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="E121" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="F121" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>544</v>
+        <v>491</v>
       </c>
       <c r="B122" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="E122" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G122" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="E123" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
-      <c r="G123" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="E124" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="B125" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="E125" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="F125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="B126" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="E126" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="B127" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="E127" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="B128" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="E128" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="B129" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="E129" t="s">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
-      </c>
-      <c r="G129" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="E130" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="F130" t="s">
         <v>8</v>
       </c>
-      <c r="G130" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="B131" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="E131" t="s">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="B132" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="E132" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="B133" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="E133" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="B134" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="E134" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="B135" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
       <c r="E135" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="F135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="B136" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="E136" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
